--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2136621.378425137</v>
+        <v>2256456.621450847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324958</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5312120.431154445</v>
+        <v>5602701.235917781</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.0371932112874</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +670,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>305.0816929420097</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>99.4476420004344</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>220.2759823905049</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>312.4770022690926</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>320.8762425236825</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>77.69859631329851</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>171.4337088756065</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.7529570382565</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>141.0682481421031</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>81.02833397199952</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>14.14416275345394</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475798</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>144.4937753855477</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>50.30825486907106</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>13.51446909089648</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3430,13 +3432,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>164.9135579823455</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791314726</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>99.2861660332424</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800603</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.41262147913147</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>141.0682481421038</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>156.3113891517331</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,16 +3979,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948866</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791306071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.5564292240877</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>35.51678257079496</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.7810113893163</v>
+        <v>946.8034234626114</v>
       </c>
       <c r="C2" t="n">
-        <v>922.6789426131436</v>
+        <v>518.2217491998797</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4333,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4367,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1373.102993947519</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.14417192365</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C4" t="n">
-        <v>516.14417192365</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="D4" t="n">
-        <v>516.14417192365</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,19 +4494,19 @@
         <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>728.7550221176472</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1294.023247770145</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1015.59024702325</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1015.59024702325</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>743.5638426095418</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>743.5638426095418</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>516.14417192365</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1671.633358553346</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901426</v>
+        <v>1233.490885736769</v>
       </c>
       <c r="D5" t="n">
-        <v>780.7091764049912</v>
+        <v>797.5811009112139</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9748356036905</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233706</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726444</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2437.152405109127</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2422.050345728842</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2097.932929038254</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>548.8324253914318</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.043550975749</v>
+        <v>647.2900438793168</v>
       </c>
       <c r="C7" t="n">
-        <v>509.4818394589739</v>
+        <v>474.7283323625418</v>
       </c>
       <c r="D7" t="n">
-        <v>343.6038466604966</v>
+        <v>308.8503395640645</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1143.991608255753</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1586.250411413398</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639179</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609521</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>1618.699999460924</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>1618.699999460924</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1346.673595047215</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.281840380628</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>873.8621696947362</v>
+        <v>839.1086625983039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6402219259112</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>858.4638871896879</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>685.9021756729128</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1270.644793662241</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>998.6183892485328</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>998.6183892485328</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>998.6183892485328</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1526.457795636976</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1088.3153228204</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>652.4055379948441</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>218.6307931531392</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>218.6307931531392</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>218.6307931531392</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.658357898061</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3185.041407831887</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2780.18595324292</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.043489822231</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.757366121884</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>265.0439152000129</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0016331022817</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N12" t="n">
-        <v>1622.20459659609</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162089</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2066.450246394215</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1628.307773577638</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451408</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684047</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2287.945556116525</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.255430949921</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3662.754216908516</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3725.033858589125</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3725.033858589125</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3320.178404000158</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2901.035940579469</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2492.749816879123</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>764.2136293346052</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>591.6519178178302</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>425.7739250193529</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>256.0159212700901</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>256.0159212700901</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>90.4246462959178</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162089</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.258586696244</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.82558594935</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1700.87007781978</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1428.843673406072</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.451918739484</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.0322480535924</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,31 +5515,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5552,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,34 +5752,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>187.4233615301022</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.573296407379</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>831.0115848906036</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>665.1335920921263</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>495.3755883428635</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>318.6685343046197</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>153.0772593304474</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.851649999257</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6643,16 +6645,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
         <v>1889.413325832886</v>
@@ -6701,16 +6703,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
         <v>5113.04201353898</v>
@@ -6780,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6923,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,22 +7177,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>228.524776110223</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1303.584742363082</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2460.632577573633</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>3586.36356101008</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1383.964615695458</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>945.8221428788812</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>509.9123580533257</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>76.13761321162089</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>76.13761321162089</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162089</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>511.3923006645388</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>511.3923006645388</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>1453.595264158347</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>3664.387480639525</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>3405.165177956542</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3042.548227890368</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>2637.692773301402</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.550309880713</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>1810.264186180366</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2649.812644093528</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>2543.356182930171</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>2448.265894076724</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>2354.145479403678</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>2270.761641019839</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>2185.376551286023</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>2143.640899102236</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>2169.704572262694</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>2494.262897228906</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K42" t="n">
-        <v>3148.968943854629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L42" t="n">
-        <v>3148.968943854629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M42" t="n">
-        <v>3148.968943854629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N42" t="n">
-        <v>3148.968943854629</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O42" t="n">
-        <v>3148.968943854629</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P42" t="n">
-        <v>3148.968943854629</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q42" t="n">
-        <v>3689.707882486704</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>3806.880660581044</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>3743.425223029427</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>3613.246579360029</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>3436.910032359997</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>3237.792514421997</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>3052.469760155191</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>2897.602324394071</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>2771.116545173292</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162089</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1628.307773577638</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1628.307773577638</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771587</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004226</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436389</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162089</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>76.13761321162089</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1018.340576705429</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>1960.543540199238</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2902.746503693046</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3091.227809869393</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764881</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3101.389534015724</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>2696.534079426758</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.391616006068</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2054.607344062546</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2012863720785</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2012863720785</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2012863720785</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2012863720785</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1044.404249865887</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1015.293599513877</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>842.7318879971018</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>676.8538951986245</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>507.0958914493617</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>330.3888374111179</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1951.950047999052</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1679.923643585343</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1434.531888918756</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1207.112218232864</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,13 +8142,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>503.4343826282371</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>317.1830304671613</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,10 +8619,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113938</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>255.8000219838293</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>145.5822663358872</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>86.02274874679048</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -10668,7 +10670,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>127.5393291307509</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>951.720165145261</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>817.497647351161</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11136,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452613</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>190.3851577538853</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>37.43576575568454</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>145.1706048691129</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800139</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.412621479131429</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>175.6017456841538</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>124.3589898130753</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>44.28436272291272</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>88.19489769745817</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.146865729424576</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>76.79830671358798</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>11.74903456003702</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.6468332392554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>248.5691704774789</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466850.1252909917</v>
+        <v>475305.0069065085</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466850.1252909917</v>
+        <v>476827.3269371255</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394901.4732223129</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394901.4732223129</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488412.9996321559</v>
+        <v>488412.9996321557</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488412.9996321558</v>
+        <v>488412.9996321559</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488412.9996321559</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394901.473222313</v>
+        <v>488412.9996321559</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394901.473222313</v>
+        <v>488412.9996321559</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986278</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="F2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="K2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="N2" t="n">
-        <v>487343.2653270508</v>
-      </c>
       <c r="O2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="P2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270506</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501609</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998284</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877246</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622371</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940155</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>44115.42103448477</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="F4" t="n">
-        <v>44115.42103448477</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962275</v>
@@ -26448,16 +26450,16 @@
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="O4" t="n">
-        <v>44115.42103448479</v>
+        <v>54561.82510962267</v>
       </c>
       <c r="P4" t="n">
-        <v>44115.42103448479</v>
+        <v>54561.82510962265</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100623.5024505311</v>
+        <v>100623.502450531</v>
       </c>
       <c r="C6" t="n">
-        <v>242814.803110241</v>
+        <v>202411.2574015936</v>
       </c>
       <c r="D6" t="n">
-        <v>242814.8031102408</v>
+        <v>262185.9565410981</v>
       </c>
       <c r="E6" t="n">
-        <v>134579.2481918023</v>
+        <v>172708.0923905856</v>
       </c>
       <c r="F6" t="n">
-        <v>292056.5431139064</v>
+        <v>355063.2016116356</v>
       </c>
       <c r="G6" t="n">
-        <v>265563.3930052663</v>
+        <v>355063.2016116354</v>
       </c>
       <c r="H6" t="n">
-        <v>355063.2016116354</v>
+        <v>355063.2016116355</v>
       </c>
       <c r="I6" t="n">
         <v>355063.2016116354</v>
       </c>
       <c r="J6" t="n">
-        <v>244048.7362666454</v>
+        <v>244048.7362666452</v>
       </c>
       <c r="K6" t="n">
+        <v>302017.3469728631</v>
+      </c>
+      <c r="L6" t="n">
+        <v>345670.8998850131</v>
+      </c>
+      <c r="M6" t="n">
+        <v>202863.0306736479</v>
+      </c>
+      <c r="N6" t="n">
+        <v>355063.2016116355</v>
+      </c>
+      <c r="O6" t="n">
+        <v>355063.2016116355</v>
+      </c>
+      <c r="P6" t="n">
         <v>355063.2016116354</v>
-      </c>
-      <c r="L6" t="n">
-        <v>355063.2016116355</v>
-      </c>
-      <c r="M6" t="n">
-        <v>223626.9544542158</v>
-      </c>
-      <c r="N6" t="n">
-        <v>355063.2016116356</v>
-      </c>
-      <c r="O6" t="n">
-        <v>292056.5431139063</v>
-      </c>
-      <c r="P6" t="n">
-        <v>292056.5431139063</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.9993815687712</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>99.12156952133336</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>68.61278171133571</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23.14466956682443</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>111.1117530257918</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>83.32701993966054</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27791,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>197.9500744261272</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>53.71176510342627</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27913,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.14747549354072</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,13 +34862,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34877,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>503.4343826282371</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>317.1830304671613</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35339,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113938</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>255.8000219838293</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>145.5822663358872</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>86.02274874679048</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,10 +37317,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>127.5393291307509</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37561,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>951.720165145261</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>817.497647351161</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452613</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>190.3851577538853</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>37.43576575568454</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2256456.621450847</v>
+        <v>2255931.439081815</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>87.76552694504831</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,13 +670,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>305.0816929420097</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>99.4476420004344</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -867,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>142.0902352657462</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>245.1405740282509</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>320.8762425236825</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964408</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.4337088756065</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>30.15774997692755</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>67.37282263167502</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>169.9259850434489</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>119.9348501475798</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>13.51446909089648</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>123.2901323038659</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314726</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361638</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>99.2861660332424</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800603</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.41262147913147</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>156.3113891517331</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948866</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791306071</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>82.15263531037763</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.55329631630673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>946.8034234626114</v>
+        <v>1245.49437657324</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2217491998797</v>
+        <v>1211.392307797067</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.102993947519</v>
+        <v>1334.146423992481</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>705.2562847857771</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>705.2562847857771</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>705.2562847857771</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>705.2562847857771</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.633358553346</v>
+        <v>574.0056065428942</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.490885736769</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5811009112139</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>557.764910672644</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>557.764910672644</v>
       </c>
       <c r="M5" t="n">
-        <v>485.687074042395</v>
+        <v>557.764910672644</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726444</v>
+        <v>557.764910672644</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717423</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762202</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720796</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.96745565769</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.96745565769</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.96745565769</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.96745565769</v>
+        <v>2075.350505591516</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.152405109127</v>
+        <v>1827.733764148838</v>
       </c>
       <c r="X5" t="n">
-        <v>2422.050345728842</v>
+        <v>1408.591300728149</v>
       </c>
       <c r="Y5" t="n">
-        <v>2097.932929038254</v>
+        <v>1000.305177027802</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947706</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947706</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947706</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947706</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947706</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947706</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>548.8324253914318</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.2900438793168</v>
+        <v>593.0357356940367</v>
       </c>
       <c r="C7" t="n">
-        <v>474.7283323625418</v>
+        <v>420.4740241772616</v>
       </c>
       <c r="D7" t="n">
-        <v>308.8503395640645</v>
+        <v>254.5960313787843</v>
       </c>
       <c r="E7" t="n">
-        <v>139.0923358148017</v>
+        <v>84.83802762952158</v>
       </c>
       <c r="F7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255753</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413398</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639179</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609521</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179225</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477222</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055677</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308782</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179213</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765504</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098917</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.1086625983039</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
         <v>77.22824207901677</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,46 +5047,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0439152000129</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G13" t="n">
         <v>330.8229638057298</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5284,46 +5284,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903949</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736198</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D16" t="n">
-        <v>632.5563420751425</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E16" t="n">
-        <v>462.7983383258798</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F16" t="n">
-        <v>286.091284287636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G16" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461861</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109382</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,34 +5515,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>677.2880215932362</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439735</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057297</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5752,34 +5752,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>187.4233615301022</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1021.77365348828</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1021.77365348828</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2178.821488698831</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6302,10 +6302,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2683.851649999257</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2437.972203577713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2159.539202830818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1872.583694701248</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.55729028754</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6645,16 +6645,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
         <v>1889.413325832886</v>
@@ -6928,37 +6928,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2437.972203577713</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2159.539202830818</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1872.583694701248</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.55729028754</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7399,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>831.0115848906036</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>831.0115848906036</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771587</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004226</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436389</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7842,16 +7842,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>203.2851159259061</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611064</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>503.4343826282371</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684633</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671613</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>164.4273484133669</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.02274874679048</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9421,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>606.9002735643694</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.56253959275558</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.28436272291272</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>144.1344859240868</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>69.71657238081423</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>11.74903456003702</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>488412.9996321558</v>
+        <v>488412.9996321559</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>488412.9996321558</v>
+        <v>488412.9996321557</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488412.9996321557</v>
+        <v>488412.9996321559</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488412.9996321558</v>
+        <v>488412.9996321559</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488412.9996321559</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488412.9996321559</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>488412.9996321559</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>488412.9996321559</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986278</v>
@@ -26322,13 +26322,13 @@
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="G2" t="n">
         <v>487343.2653270508</v>
-      </c>
-      <c r="G2" t="n">
-        <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270508</v>
@@ -26337,10 +26337,10 @@
         <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="K2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
         <v>487343.2653270507</v>
@@ -26349,7 +26349,7 @@
         <v>487343.2653270508</v>
       </c>
       <c r="N2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="O2" t="n">
         <v>487343.2653270507</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501609</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998284</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877246</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622371</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940155</v>
+        <v>154981.0317940156</v>
       </c>
       <c r="D4" t="n">
         <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="H4" t="n">
+        <v>54561.82510962272</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962267</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962265</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100623.502450531</v>
+        <v>100623.5024505311</v>
       </c>
       <c r="C6" t="n">
         <v>202411.2574015936</v>
       </c>
       <c r="D6" t="n">
-        <v>262185.9565410981</v>
+        <v>262185.956541098</v>
       </c>
       <c r="E6" t="n">
-        <v>172708.0923905856</v>
+        <v>172684.8680512031</v>
       </c>
       <c r="F6" t="n">
-        <v>355063.2016116356</v>
+        <v>355039.9772722527</v>
       </c>
       <c r="G6" t="n">
-        <v>355063.2016116354</v>
+        <v>355039.9772722528</v>
       </c>
       <c r="H6" t="n">
-        <v>355063.2016116355</v>
+        <v>355039.9772722528</v>
       </c>
       <c r="I6" t="n">
-        <v>355063.2016116354</v>
+        <v>355039.9772722527</v>
       </c>
       <c r="J6" t="n">
-        <v>244048.7362666452</v>
+        <v>244025.5119272626</v>
       </c>
       <c r="K6" t="n">
-        <v>302017.3469728631</v>
+        <v>301994.1226334804</v>
       </c>
       <c r="L6" t="n">
-        <v>345670.8998850131</v>
+        <v>345647.6755456303</v>
       </c>
       <c r="M6" t="n">
-        <v>202863.0306736479</v>
+        <v>202839.8063342652</v>
       </c>
       <c r="N6" t="n">
-        <v>355063.2016116355</v>
+        <v>355039.9772722527</v>
       </c>
       <c r="O6" t="n">
-        <v>355063.2016116355</v>
+        <v>355039.9772722527</v>
       </c>
       <c r="P6" t="n">
-        <v>355063.2016116354</v>
+        <v>355039.9772722527</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939362</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939362</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939362</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>334.2710478350104</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.12156952133336</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.61278171133571</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>100.8476018541754</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>155.6663260148261</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.32701993966054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682173</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27794,7 +27794,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.71176510342627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27909,7 +27909,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>226.4723296792257</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-5.674143175943373e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-5.674143175943373e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>203.2851159259061</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611064</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>503.4343826282371</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684633</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671613</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>164.4273484133669</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.02274874679048</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36141,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,10 +37317,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>606.9002735643694</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
